--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/25_Denizli_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/25_Denizli_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FEA9B5-59E5-4FF2-92C5-3822C940DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68603040-E983-4ACA-B912-BE9783181755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{FD49ECD6-6E79-4C8D-8D09-746CE7E5B356}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{AED94052-5C7F-460A-B77B-FD3230B14A77}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C031833A-9FA0-48B0-8C55-77CE8C6F5D41}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{27F198D5-B3F4-44EB-BC4E-75D37ED78536}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{0A70AC7D-1E77-4345-931E-633F88DDC5A5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{50C077E0-BC3C-41DA-9DEE-1E98E08B223E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A0A11933-6BF0-4FF5-8DA9-617D37E623A6}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{F58C76E4-5413-40B9-8F71-674F91E06E3F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{A7EDAFBE-7A05-4F6E-8280-FE0E76D7A6CB}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AB724F96-2D8C-454A-AD3D-FF9FF1CA6595}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DF83C861-4C48-4157-90C2-107391C7C16D}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{099B8DD3-62CA-484D-9FAD-01F929FF13E2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{535B6D24-BEFA-442D-8007-1BF74AB1C697}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{72AB6732-2CA7-4BB2-ABEF-A3D143AB174F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{9B324AD7-C688-444B-BCFB-B99EC3EEC056}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{4D174A90-03B9-47D5-A569-7DD79FCDCD04}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BBAEE9-E453-49A8-910E-93DB7CAF6D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B733A4-1D47-4620-80A6-B01B4855456E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2458,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E796C081-016D-4EC2-9E5D-3335326A45A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF974A34-AA47-4FAB-B7F1-DBCEA43B8268}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3749,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BBE633-607D-421B-93EB-E5B957767DF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B24D86C-CFBD-4214-892C-C38D0F3EB225}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5042,7 +5042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F04ED6C-BF97-4853-AB5D-3EC503DB5CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA8CD2C-662C-4F91-AFFF-2D48917D2222}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6333,7 +6333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FE8755-3BEA-4D49-B283-061C419687BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948930EF-49A6-4766-AEAC-3159A94E2675}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7620,7 +7620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39D5AC1-D183-435D-B2AF-6D4C6674C926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A73586D-8D55-4EBF-BEA9-28706DF5EDE3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
